--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
     <sheet name="Week 16-17" sheetId="7" r:id="rId2"/>
+    <sheet name="Week 18-19" sheetId="8" r:id="rId3"/>
+    <sheet name="Week 20-21" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="78">
   <si>
     <t>MORNING</t>
   </si>
@@ -211,6 +213,114 @@
   </si>
   <si>
     <t>威海-北京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦庄编写华泰证券信息安全评估表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券信息安全评估表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金大讲堂无纸化培训</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-南京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金大讲堂无纸化培训PPT编写</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训测试题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦庄</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券无纸化、云证通、网络身份认证平台交流PPT</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安银行无纸化项目材料编写</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券现场交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京-北京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝乾小贷无纸化云证通方案编写</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>富深协通公积金无纸化联合DEMO开发支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-青岛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技电子发票签章方案电话交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔消费金融无纸化项目交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技电子发票交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>海闻科技电子发票交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景证书在自助办理渠道下使用讨论</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新APP、网银无纸化方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新消费金融无纸化方案/PPT</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践公司其它产品线方案、部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践公司其它产品线方案、部署</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -753,12 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,10 +884,23 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,7 +1174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1066,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -1082,11 +1200,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1095,14 +1213,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1150,10 +1268,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="47">
         <v>2017</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1164,16 +1282,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1258,7 +1376,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="52">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1304,7 +1422,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1340,7 +1458,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1455,7 +1573,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="52">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1479,7 +1597,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1496,7 +1614,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1546,7 +1664,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="52">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1561,7 +1679,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1569,7 +1687,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1592,7 +1710,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="52">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1606,14 +1724,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1636,7 +1754,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="52">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1650,14 +1768,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1676,7 +1794,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="52">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1686,14 +1804,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1712,7 +1830,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="52">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1722,14 +1840,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1765,7 +1883,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="52">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1775,14 +1893,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1806,7 +1924,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="52">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1816,14 +1934,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1847,7 +1965,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="52">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1857,14 +1975,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1883,7 +2001,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="52">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1893,14 +2011,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1919,7 +2037,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="52">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1929,14 +2047,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1955,7 +2073,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="52">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1965,14 +2083,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1991,7 +2109,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="52">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2001,20 +2119,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2029,11 +2152,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2049,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S52" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2065,11 +2183,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2078,14 +2196,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2133,10 +2251,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="47">
         <v>2017</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2147,16 +2265,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2239,7 +2357,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="52">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -2283,7 +2401,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2319,7 +2437,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2432,7 +2550,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="52">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -2454,7 +2572,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2471,7 +2589,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2521,7 +2639,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="52">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -2536,7 +2654,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2544,7 +2662,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2567,7 +2685,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="52">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -2581,14 +2699,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2611,7 +2729,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="52">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -2625,14 +2743,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2651,7 +2769,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="52">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -2661,14 +2779,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2687,7 +2805,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="52">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -2697,14 +2815,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2737,14 +2855,14 @@
       <c r="C43" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="52">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -2758,14 +2876,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2786,14 +2904,14 @@
       <c r="C48" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="52">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -2807,14 +2925,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2835,14 +2953,14 @@
       <c r="C53" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="52">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -2856,14 +2974,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2879,14 +2997,14 @@
       <c r="C58" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="52">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -2900,14 +3018,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2923,14 +3041,14 @@
       <c r="C63" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="52">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -2944,14 +3062,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2970,7 +3088,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="52">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -2980,14 +3098,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3006,7 +3124,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="52">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3016,14 +3134,1039 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42856</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42856</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>18</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="47">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="49">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42856</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="52">
+        <f>E2</f>
+        <v>42856</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="53"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42857</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="52">
+        <f>B7+1</f>
+        <v>42857</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="52"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="53"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42858</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="52">
+        <f>B12+1</f>
+        <v>42858</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42859</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="52">
+        <f>B17+1</f>
+        <v>42859</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42860</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="52">
+        <f>B22+1</f>
+        <v>42860</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42861</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="52">
+        <f>B27+1</f>
+        <v>42861</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42862</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="52">
+        <f>B32+1</f>
+        <v>42862</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42863</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42863</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="52">
+        <f>B37+1</f>
+        <v>42863</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42864</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="52">
+        <f>B44+1</f>
+        <v>42864</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42865</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="52">
+        <f>B49+1</f>
+        <v>42865</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42866</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="52">
+        <f>B54+1</f>
+        <v>42866</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42867</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="52">
+        <f>B59+1</f>
+        <v>42867</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42868</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="52">
+        <f>B64+1</f>
+        <v>42868</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42869</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="52">
+        <f>B69+1</f>
+        <v>42869</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -3051,11 +4194,997 @@
     <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="47">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="49">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="52">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="53"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="52">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="52"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="53"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="52">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="52">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="52">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="52">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="52">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="52">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="52">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="52">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="52">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="52">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="52">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="52">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
     <sheet name="Week 16-17" sheetId="7" r:id="rId2"/>
     <sheet name="Week 18-19" sheetId="8" r:id="rId3"/>
     <sheet name="Week 20-21" sheetId="9" r:id="rId4"/>
+    <sheet name="Week 22-23" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="91">
   <si>
     <t>MORNING</t>
   </si>
@@ -304,23 +305,103 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>场景证书在自助办理渠道下使用讨论</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新APP、网银无纸化方案</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新消费金融无纸化方案/PPT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>实践公司其它产品线方案、部署</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>实践公司其它产品线方案、部署</t>
+    <t>菜市口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈银消费金融标书编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈银消费金融标书编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券无纸化云证通方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行无纸化实施方案业务流程设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络身份认证平台培训</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程协助富深协同公积金集成无纸化系统接口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程协助富深协同公积金集成无纸化系统接口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈银消费金融投标</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-镇江</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江公积金无纸化系统演示</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇江公积金方案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准备</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江-北京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端服务端SADK学习实践</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化系统新版本接口学习</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -864,6 +945,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,14 +982,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1200,11 +1281,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1213,14 +1294,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1268,10 +1349,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1282,16 +1363,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1376,7 +1457,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1422,7 +1503,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1458,7 +1539,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1573,7 +1654,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1597,7 +1678,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1614,7 +1695,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1664,7 +1745,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1679,7 +1760,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1687,7 +1768,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1710,7 +1791,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1724,14 +1805,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1754,7 +1835,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1768,14 +1849,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1794,7 +1875,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1804,14 +1885,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1830,7 +1911,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1840,14 +1921,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1883,7 +1964,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1893,14 +1974,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1924,7 +2005,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1934,14 +2015,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1965,7 +2046,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1975,14 +2056,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2001,7 +2082,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2011,14 +2092,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2037,7 +2118,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2047,14 +2128,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2073,7 +2154,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2083,14 +2164,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2109,7 +2190,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2119,14 +2200,14 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -2183,11 +2264,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2196,14 +2277,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2251,10 +2332,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2265,16 +2346,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2357,7 +2438,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -2401,7 +2482,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2437,7 +2518,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2550,7 +2631,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -2572,7 +2653,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2589,7 +2670,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2639,7 +2720,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -2654,7 +2735,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2662,7 +2743,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2685,7 +2766,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -2699,14 +2780,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2729,7 +2810,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -2743,14 +2824,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2769,7 +2850,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -2779,14 +2860,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2805,7 +2886,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -2815,14 +2896,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2862,7 +2943,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -2876,14 +2957,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2911,7 +2992,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -2925,14 +3006,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2960,7 +3041,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -2974,14 +3055,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3004,7 +3085,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3018,14 +3099,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3048,7 +3129,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3062,14 +3143,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3088,7 +3169,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3098,14 +3179,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3124,7 +3205,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3134,14 +3215,14 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -3198,11 +3279,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3211,14 +3292,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3266,10 +3347,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3280,16 +3361,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="49">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3372,7 +3453,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -3416,7 +3497,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3452,7 +3533,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3565,7 +3646,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -3587,7 +3668,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -3604,7 +3685,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3654,7 +3735,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -3669,7 +3750,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3677,7 +3758,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3700,7 +3781,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -3714,14 +3795,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3744,7 +3825,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -3758,14 +3839,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3784,7 +3865,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -3794,14 +3875,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3820,7 +3901,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -3830,14 +3911,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3877,11 +3958,11 @@
     </row>
     <row r="44" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42863</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="48" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="41" t="s">
@@ -3891,14 +3972,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3926,7 +4007,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -3940,14 +4021,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3975,7 +4056,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -3991,7 +4072,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41" t="s">
         <v>58</v>
@@ -4000,7 +4081,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4023,7 +4104,7 @@
     </row>
     <row r="59" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4033,22 +4114,22 @@
       <c r="D59" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="46" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="58" t="s">
+      <c r="D60" s="49" t="s">
         <v>69</v>
       </c>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4071,7 +4152,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4085,16 +4166,16 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="47" t="s">
         <v>65</v>
       </c>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4113,7 +4194,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4123,14 +4204,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4149,7 +4230,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4159,17 +4240,2140 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="51">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="53">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="56">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="57"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="56">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="56"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="57"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="56">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="56">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="56">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="56">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="56">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="56">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="56">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="56">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="56">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="56">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="56">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="56">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42877</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42877</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="51">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="53">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42877</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="56">
+        <f>E2</f>
+        <v>42877</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42878</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="56">
+        <f>B7+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42879</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="56">
+        <f>B12+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42880</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="56">
+        <f>B17+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42881</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="56">
+        <f>B22+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42882</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="56">
+        <f>B27+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42883</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="56">
+        <f>B32+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42884</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42884</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="56">
+        <f>B37+1</f>
+        <v>42884</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42885</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="56">
+        <f>B44+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42886</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="56">
+        <f>B49+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42887</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="56">
+        <f>B54+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42888</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="56">
+        <f>B59+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42889</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="56">
+        <f>B64+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42890</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="56">
+        <f>B69+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -4197,994 +6401,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="38">
-        <f>C3</f>
-        <v>42870</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21">
-        <v>42870</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
-WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="30">
-        <v>5</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="47">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="49">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <f>B7</f>
-        <v>42870</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="G6" s="35" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="35">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="35">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="35">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="35">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="35">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="35">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="52">
-        <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="G7" s="35">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="35">
-        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="35">
-        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="35">
-        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="35">
-        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="35">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="35">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="G8" s="35">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="35">
-        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="35">
-        <f t="shared" si="2"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="2"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="2"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="35">
-        <f t="shared" si="2"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="35">
-        <f t="shared" si="2"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="35">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="35">
-        <f t="shared" si="2"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="35">
-        <f t="shared" si="2"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="2"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="2"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="35">
-        <f t="shared" si="2"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="35">
-        <f t="shared" si="2"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="G10" s="35">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="35">
-        <f t="shared" si="2"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="35">
-        <f t="shared" si="2"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="2"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
-        <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="G11" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M11" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
-        <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="G15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7">
-        <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="52">
-        <f>B12+1</f>
-        <v>42872</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7">
-        <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="52">
-        <f>B17+1</f>
-        <v>42873</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="52">
-        <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7">
-        <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="52">
-        <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="52">
-        <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="21">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
-WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="7">
-        <f>B44</f>
-        <v>42877</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="52">
-        <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7">
-        <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="52">
-        <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7">
-        <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="52">
-        <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="7">
-        <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="52">
-        <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="7">
-        <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="52">
-        <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="7">
-        <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="52">
-        <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="7">
-        <f>B74</f>
-        <v>42883</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="52">
-        <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="15"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="99">
   <si>
     <t>MORNING</t>
   </si>
@@ -342,18 +342,6 @@
   </si>
   <si>
     <t>外出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈银消费金融投标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>包商银行无纸化交流</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京-镇江</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -393,15 +381,59 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>客户端服务端SADK学习实践</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>镇江-北京</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>客户端服务端SADK学习实践</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化系统新版本接口学习</t>
+    <t>公积金行业无纸化解决方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行无纸化项目投标</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风汽车财务无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风汽车财务无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金大讲堂学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-镇江</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金演示DEMO联调</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江公积金无纸化交流</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -953,6 +985,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,12 +1009,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1255,7 +1287,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1294,8 +1326,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1349,10 +1381,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1363,16 +1395,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1457,7 +1489,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1503,7 +1535,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1539,7 +1571,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1654,7 +1686,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1678,7 +1710,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1695,7 +1727,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1745,7 +1777,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1760,7 +1792,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1768,7 +1800,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1791,7 +1823,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1805,14 +1837,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1835,7 +1867,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1849,14 +1881,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1875,7 +1907,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1885,14 +1917,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1911,7 +1943,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1921,14 +1953,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1964,7 +1996,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1974,14 +2006,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2005,7 +2037,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2015,14 +2047,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2046,7 +2078,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2056,14 +2088,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2082,7 +2114,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2092,14 +2124,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2118,7 +2150,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2128,14 +2160,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2154,7 +2186,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2164,14 +2196,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2190,7 +2222,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2200,25 +2232,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2233,6 +2260,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2277,8 +2309,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -2332,10 +2364,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2346,16 +2378,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2438,7 +2470,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -2482,7 +2514,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2518,7 +2550,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2631,7 +2663,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -2653,7 +2685,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2670,7 +2702,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2720,7 +2752,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -2735,7 +2767,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2743,7 +2775,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2766,7 +2798,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -2780,14 +2812,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2810,7 +2842,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -2824,14 +2856,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2850,7 +2882,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -2860,14 +2892,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2886,7 +2918,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -2896,14 +2928,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2943,7 +2975,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -2957,14 +2989,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2992,7 +3024,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3006,14 +3038,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3041,7 +3073,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3055,14 +3087,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3085,7 +3117,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3099,14 +3131,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3129,7 +3161,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3143,14 +3175,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3169,7 +3201,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3179,14 +3211,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3205,7 +3237,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3215,20 +3247,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3241,13 +3280,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3292,8 +3324,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -3347,10 +3379,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3361,16 +3393,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3453,7 +3485,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -3497,7 +3529,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3533,7 +3565,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3646,7 +3678,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -3668,7 +3700,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -3685,7 +3717,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3735,7 +3767,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -3750,7 +3782,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3758,7 +3790,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3781,7 +3813,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -3795,14 +3827,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3825,7 +3857,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -3839,14 +3871,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3865,7 +3897,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -3875,14 +3907,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3901,7 +3933,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -3911,14 +3943,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3958,7 +3990,7 @@
     </row>
     <row r="44" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -3972,14 +4004,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -4007,7 +4039,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4021,14 +4053,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -4056,7 +4088,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4072,7 +4104,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41" t="s">
         <v>58</v>
@@ -4081,7 +4113,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4104,7 +4136,7 @@
     </row>
     <row r="59" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4120,7 +4152,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="49" t="s">
         <v>69</v>
@@ -4129,7 +4161,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4152,7 +4184,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4166,7 +4198,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="47" t="s">
         <v>65</v>
@@ -4175,7 +4207,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4194,7 +4226,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4204,14 +4236,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4230,7 +4262,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4240,27 +4272,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4273,6 +4298,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4313,8 +4345,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -4368,10 +4400,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4382,16 +4414,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4474,7 +4506,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -4518,7 +4550,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -4554,7 +4586,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -4667,7 +4699,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -4689,7 +4721,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -4706,7 +4738,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -4756,7 +4788,7 @@
     </row>
     <row r="17" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -4771,7 +4803,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -4779,7 +4811,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -4802,7 +4834,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -4818,14 +4850,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -4848,7 +4880,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -4862,7 +4894,7 @@
     </row>
     <row r="28" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48" t="s">
         <v>79</v>
@@ -4871,7 +4903,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -4890,7 +4922,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -4900,14 +4932,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -4926,7 +4958,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -4936,14 +4968,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -4983,7 +5015,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -4993,14 +5025,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -5028,7 +5060,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -5038,14 +5070,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -5073,7 +5105,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -5083,14 +5115,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -5113,7 +5145,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -5123,14 +5155,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -5153,7 +5185,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -5163,14 +5195,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -5189,7 +5221,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -5199,14 +5231,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -5225,7 +5257,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -5235,27 +5267,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5268,6 +5293,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5279,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5307,8 +5339,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5360,10 +5392,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -5372,16 +5404,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5463,7 +5495,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42877</v>
       </c>
@@ -5506,7 +5538,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -5542,7 +5574,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -5657,15 +5689,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42878</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="2"/>
@@ -5679,7 +5711,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -5696,7 +5728,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -5738,7 +5770,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
@@ -5752,15 +5784,15 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42879</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="1"/>
@@ -5774,7 +5806,7 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -5789,7 +5821,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -5829,34 +5861,32 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42880</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="15"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -5887,22 +5917,22 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42881</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48"/>
       <c r="E28" s="15"/>
@@ -5910,7 +5940,7 @@
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -5930,25 +5960,31 @@
         <f>B32</f>
         <v>42882</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="43" t="s">
+        <v>86</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42882</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="E32" s="15"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
@@ -5956,7 +5992,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -5983,7 +6019,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42883</v>
       </c>
@@ -5994,7 +6030,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
@@ -6002,7 +6038,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -6048,28 +6084,32 @@
         <v>42884</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42884</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="41"/>
+      <c r="C44" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="E44" s="15"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
@@ -6077,7 +6117,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -6098,28 +6138,32 @@
         <v>42885</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42885</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="41"/>
+      <c r="C49" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="E49" s="15"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
@@ -6127,7 +6171,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -6158,18 +6202,22 @@
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42886</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="C54" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="E54" s="15"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
@@ -6177,7 +6225,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -6208,18 +6256,22 @@
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42887</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="C59" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="E59" s="15"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
@@ -6227,7 +6279,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -6258,18 +6310,22 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42888</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="E64" s="15"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
@@ -6277,7 +6333,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -6304,7 +6360,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42889</v>
       </c>
@@ -6315,7 +6371,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
@@ -6323,7 +6379,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -6350,7 +6406,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42890</v>
       </c>
@@ -6361,7 +6417,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
@@ -6369,7 +6425,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -6377,6 +6433,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -6384,18 +6452,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
     <sheet name="Week 16-17" sheetId="7" r:id="rId2"/>
     <sheet name="Week 18-19" sheetId="8" r:id="rId3"/>
-    <sheet name="Week 20-21" sheetId="9" r:id="rId4"/>
-    <sheet name="Week 22-23" sheetId="10" r:id="rId5"/>
+    <sheet name="Week 20" sheetId="9" r:id="rId4"/>
+    <sheet name="Week 21-22" sheetId="10" r:id="rId5"/>
+    <sheet name="Week 23-24" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
   <si>
     <t>MORNING</t>
   </si>
@@ -397,43 +398,79 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>北京-镇江</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金演示DEMO联调</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江公积金无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>菜市口</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>百信银行无纸化项目投标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>东风汽车财务无纸化交流</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>东风汽车财务无纸化交流</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金大讲堂学习</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA学习</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京-镇江</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>外出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金演示DEMO联调</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇江公积金无纸化交流</t>
+    <t>百瑞信托询价函技术方案编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>百瑞信托询价函技术方案编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东盟海产品交易所证书应用解决方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东盟海产品交易所证书应用解决方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDFSealSADK/OFFICESealSADK/电子签章系统/RA产品学习及产品部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDFSealSADK/OFFICESealSADK/电子签章系统/RA产品学习及产品部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗产品交易平台证书应用解决方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗产品交易平台证书应用解决方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-武汉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风汽车财务无纸化项目交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉-北京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延边农商行无纸化系统集成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延边农商行无纸化系统集成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金行业无纸化解决方案</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -985,12 +1022,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,6 +1040,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1287,7 +1324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1326,8 +1363,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1381,10 +1418,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1395,16 +1432,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1489,7 +1526,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1535,7 +1572,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1571,7 +1608,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1686,7 +1723,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1710,7 +1747,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1727,7 +1764,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1777,7 +1814,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1792,7 +1829,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1800,7 +1837,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1823,7 +1860,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1837,14 +1874,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1867,7 +1904,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1881,14 +1918,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1907,7 +1944,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1917,14 +1954,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1943,7 +1980,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1953,14 +1990,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1996,7 +2033,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2006,14 +2043,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2037,7 +2074,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2047,14 +2084,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2078,7 +2115,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2088,14 +2125,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2114,7 +2151,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2124,14 +2161,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2150,7 +2187,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2160,14 +2197,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2186,7 +2223,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2196,14 +2233,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2222,7 +2259,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2232,20 +2269,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2260,11 +2302,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2309,8 +2346,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -2364,10 +2401,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2378,16 +2415,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2470,7 +2507,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -2514,7 +2551,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2550,7 +2587,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2663,7 +2700,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -2685,7 +2722,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2702,7 +2739,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2752,7 +2789,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -2767,7 +2804,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2775,7 +2812,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2798,7 +2835,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -2812,14 +2849,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2842,7 +2879,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -2856,14 +2893,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2882,7 +2919,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -2892,14 +2929,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2918,7 +2955,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -2928,14 +2965,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2975,7 +3012,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -2989,14 +3026,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3024,7 +3061,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3038,14 +3075,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3073,7 +3110,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3087,14 +3124,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3117,7 +3154,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3131,14 +3168,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3161,7 +3198,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3175,14 +3212,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3201,7 +3238,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3211,14 +3248,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3237,7 +3274,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3247,27 +3284,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3280,6 +3310,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3324,8 +3361,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -3379,10 +3416,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3393,16 +3430,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3485,7 +3522,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -3529,7 +3566,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3565,7 +3602,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3678,7 +3715,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -3700,7 +3737,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -3717,7 +3754,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3767,7 +3804,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -3782,7 +3819,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3790,7 +3827,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3813,7 +3850,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -3827,14 +3864,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3857,7 +3894,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -3871,14 +3908,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3897,7 +3934,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -3907,14 +3944,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3933,7 +3970,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -3943,14 +3980,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3990,7 +4027,7 @@
     </row>
     <row r="44" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4004,14 +4041,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -4039,7 +4076,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4053,14 +4090,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -4088,7 +4125,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4104,7 +4141,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41" t="s">
         <v>58</v>
@@ -4113,7 +4150,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4136,7 +4173,7 @@
     </row>
     <row r="59" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4152,7 +4189,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="49" t="s">
         <v>69</v>
@@ -4161,7 +4198,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4184,7 +4221,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4198,7 +4235,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="47" t="s">
         <v>65</v>
@@ -4207,7 +4244,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4226,7 +4263,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4236,14 +4273,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4262,7 +4299,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4272,20 +4309,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4298,13 +4342,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4316,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F76"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4345,8 +4382,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -4400,10 +4437,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4414,16 +4451,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4506,7 +4543,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -4550,7 +4587,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -4586,7 +4623,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -4699,7 +4736,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -4721,7 +4758,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -4738,7 +4775,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -4788,7 +4825,7 @@
     </row>
     <row r="17" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -4803,7 +4840,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -4811,7 +4848,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -4834,7 +4871,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -4850,14 +4887,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -4880,7 +4917,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -4894,7 +4931,7 @@
     </row>
     <row r="28" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48" t="s">
         <v>79</v>
@@ -4903,7 +4940,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -4922,7 +4959,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -4932,14 +4969,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -4958,7 +4995,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -4968,14 +5005,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -5015,7 +5052,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -5025,14 +5062,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -5060,7 +5097,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -5070,14 +5107,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -5105,7 +5142,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -5115,14 +5152,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -5145,7 +5182,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -5155,14 +5192,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -5185,7 +5222,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -5195,14 +5232,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -5221,7 +5258,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -5231,14 +5268,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -5257,7 +5294,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -5267,20 +5304,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5293,13 +5337,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5311,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5339,8 +5376,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5392,10 +5429,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -5404,16 +5441,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5495,7 +5532,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42877</v>
       </c>
@@ -5538,7 +5575,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -5574,7 +5611,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -5689,7 +5726,7 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42878</v>
       </c>
@@ -5711,7 +5748,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -5728,7 +5765,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -5770,7 +5807,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
@@ -5784,15 +5821,15 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42879</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="1"/>
@@ -5806,7 +5843,7 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -5821,7 +5858,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -5861,15 +5898,15 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42880</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>84</v>
@@ -5878,7 +5915,7 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
@@ -5886,7 +5923,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -5917,7 +5954,7 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42881</v>
       </c>
@@ -5925,14 +5962,14 @@
         <v>83</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48"/>
       <c r="E28" s="15"/>
@@ -5940,7 +5977,7 @@
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -5969,7 +6006,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42882</v>
       </c>
@@ -5984,7 +6021,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
@@ -5992,7 +6029,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -6019,7 +6056,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42883</v>
       </c>
@@ -6030,7 +6067,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
@@ -6038,7 +6075,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -6083,33 +6120,25 @@
         <f>B44</f>
         <v>42884</v>
       </c>
-      <c r="C43" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>89</v>
-      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="14"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42884</v>
       </c>
-      <c r="C44" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>90</v>
-      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="15"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
@@ -6117,7 +6146,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -6137,33 +6166,25 @@
         <f>B49</f>
         <v>42885</v>
       </c>
-      <c r="C48" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>89</v>
-      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="14"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42885</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>90</v>
-      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="15"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
@@ -6171,7 +6192,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -6192,32 +6213,32 @@
         <v>42886</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42886</v>
       </c>
-      <c r="C54" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>92</v>
+      <c r="C54" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
@@ -6225,7 +6246,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -6246,32 +6267,32 @@
         <v>42887</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42887</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>91</v>
+      <c r="C59" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
@@ -6279,7 +6300,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -6300,32 +6321,32 @@
         <v>42888</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42888</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
@@ -6333,7 +6354,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -6360,7 +6381,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42889</v>
       </c>
@@ -6371,7 +6392,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
@@ -6379,7 +6400,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -6406,7 +6427,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42890</v>
       </c>
@@ -6417,7 +6438,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
@@ -6425,7 +6446,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -6433,6 +6454,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6445,6 +6473,1089 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42891</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42891</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>23</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>6</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="51">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="53">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42891</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="35" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="35" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="56">
+        <f>E2</f>
+        <v>42891</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="2"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42892</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="56">
+        <f>B7+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42893</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="56">
+        <f>B12+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42894</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="56">
+        <f>B17+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42895</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="56">
+        <f>B22+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42896</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="56">
+        <f>B27+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42897</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="56">
+        <f>B32+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42898</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>24</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42898</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="56">
+        <f>B37+1</f>
+        <v>42898</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42899</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="56">
+        <f>B44+1</f>
+        <v>42899</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42900</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="56">
+        <f>B49+1</f>
+        <v>42900</v>
+      </c>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42901</v>
+      </c>
+      <c r="C58" s="43"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="56">
+        <f>B54+1</f>
+        <v>42901</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42902</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="56">
+        <f>B59+1</f>
+        <v>42902</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42903</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="56">
+        <f>B64+1</f>
+        <v>42903</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42904</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="56">
+        <f>B69+1</f>
+        <v>42904</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -6452,6 +7563,18 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="119">
   <si>
     <t>MORNING</t>
   </si>
@@ -450,27 +450,98 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>北京-武汉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>东风汽车财务无纸化项目交流</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉-北京</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>延边农商行无纸化系统集成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>延边农商行无纸化系统集成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金行业无纸化解决方案</t>
+    <t>北京-延边</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行无纸化项目标书编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行无纸化项目标书编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行无纸化项目标书编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行无纸化项目标书编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西金交所无纸化交流</t>
+  </si>
+  <si>
+    <t>山西金交所无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-太原</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原-北京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-常州</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州公积金开发商合作交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常州</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1022,6 +1093,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,12 +1117,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1324,7 +1395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1363,8 +1434,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1418,10 +1489,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1432,16 +1503,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1526,7 +1597,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1572,7 +1643,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1608,7 +1679,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1723,7 +1794,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1747,7 +1818,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1764,7 +1835,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1814,7 +1885,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1829,7 +1900,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1837,7 +1908,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1860,7 +1931,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1874,14 +1945,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1904,7 +1975,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1918,14 +1989,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1944,7 +2015,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1954,14 +2025,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1980,7 +2051,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1990,14 +2061,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2033,7 +2104,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2043,14 +2114,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2074,7 +2145,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2084,14 +2155,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2115,7 +2186,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2125,14 +2196,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2151,7 +2222,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2161,14 +2232,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2187,7 +2258,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2197,14 +2268,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2223,7 +2294,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2233,14 +2304,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2259,7 +2330,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2269,25 +2340,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2302,6 +2368,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2346,8 +2417,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -2401,10 +2472,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2415,16 +2486,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2507,7 +2578,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -2551,7 +2622,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2587,7 +2658,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2700,7 +2771,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -2722,7 +2793,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2739,7 +2810,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2789,7 +2860,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -2804,7 +2875,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2812,7 +2883,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2835,7 +2906,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -2849,14 +2920,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2879,7 +2950,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -2893,14 +2964,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2919,7 +2990,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -2929,14 +3000,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2955,7 +3026,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -2965,14 +3036,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3012,7 +3083,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3026,14 +3097,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3061,7 +3132,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3075,14 +3146,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3110,7 +3181,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3124,14 +3195,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3154,7 +3225,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3168,14 +3239,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3198,7 +3269,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3212,14 +3283,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3238,7 +3309,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3248,14 +3319,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3274,7 +3345,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3284,20 +3355,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3310,13 +3388,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3361,8 +3432,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -3416,10 +3487,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3430,16 +3501,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3522,7 +3593,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -3566,7 +3637,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3602,7 +3673,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3715,7 +3786,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -3737,7 +3808,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -3754,7 +3825,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3804,7 +3875,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -3819,7 +3890,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3827,7 +3898,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3850,7 +3921,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -3864,14 +3935,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3894,7 +3965,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -3908,14 +3979,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -3934,7 +4005,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -3944,14 +4015,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3970,7 +4041,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -3980,14 +4051,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -4027,7 +4098,7 @@
     </row>
     <row r="44" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4041,14 +4112,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -4076,7 +4147,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4090,14 +4161,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -4125,7 +4196,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4141,7 +4212,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41" t="s">
         <v>58</v>
@@ -4150,7 +4221,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4173,7 +4244,7 @@
     </row>
     <row r="59" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4189,7 +4260,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="49" t="s">
         <v>69</v>
@@ -4198,7 +4269,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4221,7 +4292,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4235,7 +4306,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="47" t="s">
         <v>65</v>
@@ -4244,7 +4315,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4263,7 +4334,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4273,14 +4344,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4299,7 +4370,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4309,27 +4380,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4342,6 +4406,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4382,8 +4453,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -4437,10 +4508,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4451,16 +4522,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4543,7 +4614,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -4587,7 +4658,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -4623,7 +4694,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -4736,7 +4807,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -4758,7 +4829,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -4775,7 +4846,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -4825,7 +4896,7 @@
     </row>
     <row r="17" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -4840,7 +4911,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -4848,7 +4919,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -4871,7 +4942,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -4887,14 +4958,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -4917,7 +4988,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -4931,7 +5002,7 @@
     </row>
     <row r="28" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48" t="s">
         <v>79</v>
@@ -4940,7 +5011,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -4959,7 +5030,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -4969,14 +5040,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -4995,7 +5066,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -5005,14 +5076,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -5052,7 +5123,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -5062,14 +5133,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -5097,7 +5168,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -5107,14 +5178,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -5142,7 +5213,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -5152,14 +5223,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -5182,7 +5253,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -5192,14 +5263,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -5222,7 +5293,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -5232,14 +5303,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -5258,7 +5329,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -5268,14 +5339,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -5294,7 +5365,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -5304,27 +5375,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5337,6 +5401,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5376,8 +5447,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5429,10 +5500,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -5441,16 +5512,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5532,7 +5603,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42877</v>
       </c>
@@ -5575,7 +5646,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -5611,7 +5682,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -5726,7 +5797,7 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42878</v>
       </c>
@@ -5748,7 +5819,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -5765,7 +5836,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -5821,7 +5892,7 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42879</v>
       </c>
@@ -5843,7 +5914,7 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -5858,7 +5929,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -5898,7 +5969,7 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42880</v>
       </c>
@@ -5915,7 +5986,7 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
@@ -5923,7 +5994,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -5954,7 +6025,7 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42881</v>
       </c>
@@ -5969,7 +6040,7 @@
     </row>
     <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48"/>
       <c r="E28" s="15"/>
@@ -5977,7 +6048,7 @@
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -6006,7 +6077,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42882</v>
       </c>
@@ -6021,7 +6092,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
@@ -6029,7 +6100,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -6056,7 +6127,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42883</v>
       </c>
@@ -6067,7 +6138,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
@@ -6075,7 +6146,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -6127,7 +6198,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42884</v>
       </c>
@@ -6138,7 +6209,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
@@ -6146,7 +6217,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -6173,7 +6244,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42885</v>
       </c>
@@ -6184,7 +6255,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
@@ -6192,7 +6263,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -6223,7 +6294,7 @@
     </row>
     <row r="54" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42886</v>
       </c>
@@ -6238,7 +6309,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
@@ -6246,7 +6317,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -6277,7 +6348,7 @@
     </row>
     <row r="59" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42887</v>
       </c>
@@ -6292,7 +6363,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
@@ -6300,7 +6371,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -6331,7 +6402,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42888</v>
       </c>
@@ -6346,7 +6417,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
@@ -6354,7 +6425,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -6381,7 +6452,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42889</v>
       </c>
@@ -6392,7 +6463,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
@@ -6400,7 +6471,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -6427,7 +6498,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42890</v>
       </c>
@@ -6438,7 +6509,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
@@ -6446,7 +6517,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -6454,13 +6525,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6473,6 +6537,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6484,8 +6555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6512,8 +6583,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -6565,10 +6636,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -6577,16 +6648,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6668,7 +6739,7 @@
     </row>
     <row r="7" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="56">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42891</v>
       </c>
@@ -6711,7 +6782,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -6747,7 +6818,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -6862,15 +6933,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42892</v>
       </c>
       <c r="C12" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>102</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>103</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="2"/>
@@ -6884,7 +6955,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -6901,7 +6972,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -6943,7 +7014,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
@@ -6957,15 +7028,15 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="56">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42893</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>104</v>
+      <c r="C17" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="1"/>
@@ -6979,7 +7050,7 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -6994,7 +7065,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -7032,22 +7103,22 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42894</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
@@ -7055,7 +7126,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -7076,22 +7147,22 @@
         <v>42895</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42895</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>106</v>
@@ -7101,7 +7172,7 @@
     </row>
     <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48"/>
       <c r="E28" s="15"/>
@@ -7109,7 +7180,7 @@
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -7136,7 +7207,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="56">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42896</v>
       </c>
@@ -7147,7 +7218,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
@@ -7155,7 +7226,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -7182,7 +7253,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="56">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42897</v>
       </c>
@@ -7193,7 +7264,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
@@ -7201,7 +7272,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -7246,25 +7317,33 @@
         <f>B44</f>
         <v>42898</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="45"/>
+      <c r="C43" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="56">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42898</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="E44" s="15"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
@@ -7272,7 +7351,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -7292,25 +7371,33 @@
         <f>B49</f>
         <v>42899</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="45"/>
+      <c r="C48" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>110</v>
+      </c>
       <c r="E48" s="14"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42899</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="C49" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="E49" s="15"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
@@ -7318,7 +7405,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -7338,25 +7425,33 @@
         <f>B54</f>
         <v>42900</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="45"/>
+      <c r="C53" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>115</v>
+      </c>
       <c r="E53" s="14"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="56">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42900</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
+      <c r="C54" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>114</v>
+      </c>
       <c r="E54" s="15"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
@@ -7364,7 +7459,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -7384,25 +7479,33 @@
         <f>B59</f>
         <v>42901</v>
       </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="45"/>
+      <c r="C58" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>110</v>
+      </c>
       <c r="E58" s="14"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="56">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42901</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
+      <c r="C59" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>117</v>
+      </c>
       <c r="E59" s="15"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
@@ -7410,7 +7513,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -7430,25 +7533,35 @@
         <f>B64</f>
         <v>42902</v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="45"/>
+      <c r="C63" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>110</v>
+      </c>
       <c r="E63" s="14"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="56">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42902</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="15"/>
+      <c r="C64" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
@@ -7456,7 +7569,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -7483,7 +7596,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42903</v>
       </c>
@@ -7494,7 +7607,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
@@ -7502,7 +7615,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -7529,7 +7642,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="56">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42904</v>
       </c>
@@ -7540,7 +7653,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
@@ -7548,7 +7661,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -7556,6 +7669,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -7563,18 +7688,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\Project-Process-library\Weekly Schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
@@ -13,13 +18,14 @@
     <sheet name="Week 20" sheetId="9" r:id="rId4"/>
     <sheet name="Week 21-22" sheetId="10" r:id="rId5"/>
     <sheet name="Week 23-24" sheetId="11" r:id="rId6"/>
+    <sheet name="newest" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 16-17'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="138">
   <si>
     <t>MORNING</t>
   </si>
@@ -544,20 +550,89 @@
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Weekly schedule</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>人员</t>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>焦清旺</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">百信银行标书编写 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行PPT编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场投标</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行柜面无纸化投标方案编制，PPT编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行柜面无纸化投标方案编制，PPT编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行现场投标</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行现场投标</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦清旺</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行交流</t>
+  </si>
+  <si>
+    <t>宁夏农信无纸化交流</t>
+  </si>
+  <si>
+    <t>方案整理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="dddd"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="mmmm\ d\,\ yyyy\ \(dddd\)"/>
     <numFmt numFmtId="180" formatCode="&quot;Week &quot;00"/>
     <numFmt numFmtId="181" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="182" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,8 +761,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,8 +814,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -996,12 +1098,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1093,12 +1232,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1119,8 +1252,41 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="21" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1395,7 +1561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1434,8 +1600,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1489,10 +1655,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1503,16 +1669,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1597,7 +1763,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1643,7 +1809,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1679,7 +1845,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1794,7 +1960,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1818,7 +1984,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1835,7 +2001,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1885,7 +2051,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1900,7 +2066,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1908,7 +2074,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1931,7 +2097,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1945,14 +2111,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1975,7 +2141,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1989,14 +2155,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2015,7 +2181,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -2025,14 +2191,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2051,7 +2217,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -2061,14 +2227,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2104,7 +2270,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2114,14 +2280,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2145,7 +2311,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2155,14 +2321,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2186,7 +2352,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2196,14 +2362,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2222,7 +2388,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2232,14 +2398,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2258,7 +2424,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2268,14 +2434,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2294,7 +2460,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2304,14 +2470,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2330,7 +2496,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2340,20 +2506,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2368,11 +2539,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2417,8 +2583,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -2472,10 +2638,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2486,16 +2652,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2578,7 +2744,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -2622,7 +2788,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2658,7 +2824,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2771,7 +2937,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -2793,7 +2959,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2810,7 +2976,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2860,7 +3026,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -2875,7 +3041,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2883,7 +3049,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2906,7 +3072,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -2920,14 +3086,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2950,7 +3116,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -2964,14 +3130,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2990,7 +3156,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3000,14 +3166,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -3026,7 +3192,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3036,14 +3202,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -3083,7 +3249,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3097,14 +3263,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -3132,7 +3298,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3146,14 +3312,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -3181,7 +3347,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3195,14 +3361,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -3225,7 +3391,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3239,14 +3405,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -3269,7 +3435,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3283,14 +3449,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -3309,7 +3475,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3319,14 +3485,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -3345,7 +3511,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3355,27 +3521,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3388,6 +3547,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3432,8 +3598,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -3487,10 +3653,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3501,16 +3667,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3593,7 +3759,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -3637,7 +3803,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -3673,7 +3839,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -3786,7 +3952,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -3808,7 +3974,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -3825,7 +3991,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -3875,7 +4041,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -3890,7 +4056,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -3898,7 +4064,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -3921,7 +4087,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -3935,14 +4101,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -3965,7 +4131,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -3979,14 +4145,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -4005,7 +4171,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4015,14 +4181,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -4041,7 +4207,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4051,14 +4217,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -4098,7 +4264,7 @@
     </row>
     <row r="44" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4112,14 +4278,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -4147,7 +4313,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4161,14 +4327,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -4196,7 +4362,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4212,7 +4378,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41" t="s">
         <v>58</v>
@@ -4221,7 +4387,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -4244,7 +4410,7 @@
     </row>
     <row r="59" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4260,7 +4426,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="49" t="s">
         <v>69</v>
@@ -4269,7 +4435,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -4292,7 +4458,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4306,7 +4472,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="47" t="s">
         <v>65</v>
@@ -4315,7 +4481,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -4334,7 +4500,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4344,14 +4510,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -4370,7 +4536,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4380,20 +4546,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4406,13 +4579,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4453,8 +4619,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -4508,10 +4674,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4522,16 +4688,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4614,7 +4780,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -4658,7 +4824,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -4694,7 +4860,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -4807,7 +4973,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -4829,7 +4995,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -4846,7 +5012,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -4896,7 +5062,7 @@
     </row>
     <row r="17" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -4911,7 +5077,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -4919,7 +5085,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -4942,7 +5108,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -4958,14 +5124,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -4988,7 +5154,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -5002,7 +5168,7 @@
     </row>
     <row r="28" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48" t="s">
         <v>79</v>
@@ -5011,7 +5177,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -5030,7 +5196,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -5040,14 +5206,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -5066,7 +5232,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -5076,14 +5242,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -5123,7 +5289,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -5133,14 +5299,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -5168,7 +5334,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -5178,14 +5344,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -5213,7 +5379,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -5223,14 +5389,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -5253,7 +5419,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -5263,14 +5429,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -5293,7 +5459,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -5303,14 +5469,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -5329,7 +5495,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -5339,14 +5505,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -5365,7 +5531,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -5375,20 +5541,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5401,13 +5574,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5447,8 +5613,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -5500,10 +5666,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -5512,16 +5678,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5603,7 +5769,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42877</v>
       </c>
@@ -5646,7 +5812,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -5682,7 +5848,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -5797,7 +5963,7 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42878</v>
       </c>
@@ -5819,7 +5985,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -5836,7 +6002,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -5892,7 +6058,7 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42879</v>
       </c>
@@ -5914,7 +6080,7 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -5929,7 +6095,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -5969,7 +6135,7 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42880</v>
       </c>
@@ -5986,7 +6152,7 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
@@ -5994,7 +6160,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -6025,7 +6191,7 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42881</v>
       </c>
@@ -6040,7 +6206,7 @@
     </row>
     <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48"/>
       <c r="E28" s="15"/>
@@ -6048,7 +6214,7 @@
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -6077,7 +6243,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42882</v>
       </c>
@@ -6092,7 +6258,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
@@ -6100,7 +6266,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -6127,7 +6293,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42883</v>
       </c>
@@ -6138,7 +6304,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
@@ -6146,7 +6312,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -6198,7 +6364,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42884</v>
       </c>
@@ -6209,7 +6375,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
@@ -6217,7 +6383,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -6244,7 +6410,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42885</v>
       </c>
@@ -6255,7 +6421,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
@@ -6263,7 +6429,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -6294,7 +6460,7 @@
     </row>
     <row r="54" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42886</v>
       </c>
@@ -6309,7 +6475,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
@@ -6317,7 +6483,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -6348,7 +6514,7 @@
     </row>
     <row r="59" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42887</v>
       </c>
@@ -6363,7 +6529,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
@@ -6371,7 +6537,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -6402,7 +6568,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42888</v>
       </c>
@@ -6417,7 +6583,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
@@ -6425,7 +6591,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -6452,7 +6618,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42889</v>
       </c>
@@ -6463,7 +6629,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
@@ -6471,7 +6637,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -6498,7 +6664,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42890</v>
       </c>
@@ -6509,7 +6675,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
@@ -6517,7 +6683,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -6525,6 +6691,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6537,13 +6710,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6555,7 +6721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -6583,8 +6749,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -6636,10 +6802,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -6648,16 +6814,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6739,7 +6905,7 @@
     </row>
     <row r="7" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="56">
         <f>E2</f>
         <v>42891</v>
       </c>
@@ -6782,7 +6948,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -6818,7 +6984,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -6933,7 +7099,7 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <f>B7+1</f>
         <v>42892</v>
       </c>
@@ -6955,7 +7121,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -6972,7 +7138,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -7028,7 +7194,7 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="56">
         <f>B12+1</f>
         <v>42893</v>
       </c>
@@ -7050,7 +7216,7 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -7065,7 +7231,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -7103,7 +7269,7 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="56">
         <f>B17+1</f>
         <v>42894</v>
       </c>
@@ -7118,7 +7284,7 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="39"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
@@ -7126,7 +7292,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -7157,7 +7323,7 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="56">
         <f>B22+1</f>
         <v>42895</v>
       </c>
@@ -7172,7 +7338,7 @@
     </row>
     <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12"/>
       <c r="D28" s="48"/>
       <c r="E28" s="15"/>
@@ -7180,7 +7346,7 @@
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -7207,7 +7373,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="56">
         <f>B27+1</f>
         <v>42896</v>
       </c>
@@ -7218,7 +7384,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
@@ -7226,7 +7392,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -7253,7 +7419,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="56">
         <f>B32+1</f>
         <v>42897</v>
       </c>
@@ -7264,7 +7430,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
@@ -7272,7 +7438,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -7328,7 +7494,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="56">
         <f>B37+1</f>
         <v>42898</v>
       </c>
@@ -7343,7 +7509,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
@@ -7351,7 +7517,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -7382,7 +7548,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="56">
         <f>B44+1</f>
         <v>42899</v>
       </c>
@@ -7397,7 +7563,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
@@ -7405,7 +7571,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -7436,7 +7602,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="56">
         <f>B49+1</f>
         <v>42900</v>
       </c>
@@ -7451,7 +7617,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
@@ -7459,7 +7625,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -7490,7 +7656,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="56">
         <f>B54+1</f>
         <v>42901</v>
       </c>
@@ -7505,7 +7671,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
@@ -7513,7 +7679,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -7544,7 +7710,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="56">
         <f>B59+1</f>
         <v>42902</v>
       </c>
@@ -7561,7 +7727,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
@@ -7569,7 +7735,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -7596,7 +7762,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="56">
         <f>B64+1</f>
         <v>42903</v>
       </c>
@@ -7607,7 +7773,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
@@ -7615,7 +7781,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -7642,7 +7808,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="56">
         <f>B69+1</f>
         <v>42904</v>
       </c>
@@ -7653,7 +7819,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
@@ -7661,7 +7827,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
@@ -7669,6 +7835,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -7681,16 +7854,364 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="61">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="64">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="64"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="63"/>
+      <c r="B3" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="61">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="64">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="64"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="63"/>
+      <c r="B8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" s="65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -1232,6 +1232,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,41 +1276,17 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="21" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="21" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1587,11 +1587,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1600,14 +1600,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1655,10 +1655,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1669,16 +1669,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2520,11 +2520,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2539,6 +2534,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2570,11 +2570,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2583,14 +2583,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2638,10 +2638,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2652,16 +2652,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -3535,6 +3535,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -3547,13 +3554,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3585,11 +3585,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -3598,14 +3598,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3653,10 +3653,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -3667,16 +3667,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -4560,13 +4560,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4579,6 +4572,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4606,11 +4606,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -4619,14 +4619,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -4674,10 +4674,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -4688,16 +4688,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -5555,13 +5555,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5574,6 +5567,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5599,11 +5599,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="19"/>
       <c r="F1" s="1"/>
       <c r="G1" s="24" t="s">
@@ -5613,13 +5613,13 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5666,10 +5666,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -5678,16 +5678,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6691,13 +6691,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6710,6 +6703,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6735,11 +6735,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="19"/>
       <c r="F1" s="1"/>
       <c r="G1" s="24" t="s">
@@ -6749,13 +6749,13 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -6802,10 +6802,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -6814,16 +6814,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -7835,13 +7835,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -7854,6 +7847,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7866,7 +7866,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7876,332 +7876,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="51">
         <f>WEEKNUM(B2)</f>
         <v>24</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="65">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64">
+      <c r="G2" s="65"/>
+      <c r="H2" s="65">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64">
+      <c r="I2" s="65"/>
+      <c r="J2" s="65">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64">
+      <c r="M2" s="65"/>
+      <c r="N2" s="65">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="64"/>
+      <c r="O2" s="65"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="53" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="51">
         <f>WEEKNUM(B7)</f>
         <v>25</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="63" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="65">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64">
+      <c r="E7" s="65"/>
+      <c r="F7" s="65">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64">
+      <c r="G7" s="65"/>
+      <c r="H7" s="65">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64">
+      <c r="I7" s="65"/>
+      <c r="J7" s="65">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64">
+      <c r="K7" s="65"/>
+      <c r="L7" s="65">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64">
+      <c r="M7" s="65"/>
+      <c r="N7" s="65">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="64"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
-      <c r="B8" s="65" t="s">
+      <c r="O7" s="65"/>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="67"/>
+      <c r="B8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="66" t="s">
+    <row r="9" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -8210,6 +8200,16 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="112">
   <si>
     <t>分组</t>
   </si>
@@ -353,14 +353,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>东盟海产品交易中心方案设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津银行无纸化实施</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>山东农信无纸化项目标书编制</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -374,6 +366,48 @@
   </si>
   <si>
     <t>中银三星保险无纸化项目标书编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油国际事业有限公司
+电子印章需求交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳现实供应科技有限公司
+无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券行业无纸化标准方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券行业无纸化标准方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星保险无纸化应标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包金服无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金行业无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云电子签约室业务规划</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网医疗行业无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化案例梳理</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1077,6 +1111,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,15 +1133,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,32 +1560,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1560,8 +1594,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1616,7 +1650,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1636,7 +1670,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1654,7 +1688,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1706,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1692,7 +1726,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1710,7 +1744,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1728,7 +1762,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1748,7 +1782,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1766,7 +1800,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1838,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1824,7 +1858,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1842,7 +1876,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1860,7 +1894,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1880,7 +1914,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1898,7 +1932,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1916,7 +1950,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1936,7 +1970,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1954,7 +1988,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2012,7 +2046,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2032,7 +2066,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2084,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2070,7 +2104,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2088,7 +2122,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2140,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2124,7 +2158,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2142,7 +2176,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2160,7 +2194,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2178,7 +2212,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2230,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2214,7 +2248,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2266,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2251,11 +2285,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2266,6 +2295,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2586,6 +2620,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2599,11 +2638,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2920,6 +2954,682 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="49">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="49"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="49">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="49"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="49">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="49"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="49">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="49"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2946,660 +3656,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="49">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49">
-        <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="49"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>31</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="49">
-        <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="49"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>32</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="49">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49">
-        <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="49"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="39"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>33</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="49">
-        <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="49"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="week28-29" sheetId="9" r:id="rId3"/>
     <sheet name="week30-31" sheetId="10" r:id="rId4"/>
     <sheet name="week32-33" sheetId="11" r:id="rId5"/>
+    <sheet name="wekk34-35" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="116">
   <si>
     <t>分组</t>
   </si>
@@ -399,15 +400,31 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>云电子签约室业务规划</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>互联网医疗行业无纸化方案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>无纸化案例梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无纸化项目立项材料准备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>请年假</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无纸化项目交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无纸化项目系统演示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民银行OA系统研究及汇报材料编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上饶银行无纸化交流</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1128,27 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1118,21 +1156,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,32 +1583,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1594,8 +1617,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1650,7 +1673,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1670,7 +1693,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1688,7 +1711,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1706,7 +1729,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1726,7 +1749,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1744,7 +1767,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1785,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1782,7 +1805,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1800,7 +1823,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1838,7 +1861,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1858,7 +1881,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1899,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1894,7 +1917,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1914,7 +1937,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1932,7 +1955,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1950,7 +1973,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1970,7 +1993,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +2011,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2046,7 +2069,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2066,7 +2089,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2084,7 +2107,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2104,7 +2127,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2122,7 +2145,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2140,7 +2163,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2158,7 +2181,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2176,7 +2199,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2217,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2212,7 +2235,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2230,7 +2253,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2248,7 +2271,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2266,7 +2289,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2285,6 +2308,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2295,11 +2323,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2322,13 +2345,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2346,47 +2369,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="51">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="49"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -2471,13 +2494,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2495,47 +2518,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="51">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49">
+      <c r="M7" s="51"/>
+      <c r="N7" s="51">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="49"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2620,11 +2643,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2638,6 +2656,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2659,13 +2682,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2683,47 +2706,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="51">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="49"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
@@ -2808,13 +2831,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2832,47 +2855,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="51">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49">
+      <c r="M7" s="51"/>
+      <c r="N7" s="51">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="49"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -2954,6 +2977,682 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="51">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="51"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="51">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="51"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="51">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="51"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="51">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="51"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2982,13 +3681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2997,19 +3695,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3021,87 +3719,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="49">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49">
+      <c r="B2" s="51">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="49"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3110,55 +3808,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3170,87 +3868,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="51">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="49"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3258,40 +3956,20 @@
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3300,6 +3978,11 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3308,352 +3991,8 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>32</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="49">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49">
-        <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="49"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="39"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>33</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="49">
-        <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="49"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="126">
   <si>
     <t>分组</t>
   </si>
@@ -416,15 +416,55 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>民生银行无纸化项目系统演示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国人民银行OA系统研究及汇报材料编制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>上饶银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行无纸化RA证书应用交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-上饶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳润信互联网小贷无纸化+第三方存证项目现场谈判</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中石油国际事业有限公司证书应用方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金行业无纸化方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳-北京</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原银行方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津农商银行交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券行业PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券行业PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东网银联盟单一来源材料编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示DEMO梳理</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3686,7 +3726,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3808,34 +3848,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>114</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -3956,16 +3996,36 @@
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="B9" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -3978,11 +4038,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3991,8 +4046,14 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="week28-29" sheetId="9" r:id="rId3"/>
     <sheet name="week30-31" sheetId="10" r:id="rId4"/>
     <sheet name="week32-33" sheetId="11" r:id="rId5"/>
-    <sheet name="wekk34-35" sheetId="12" r:id="rId6"/>
+    <sheet name="week34-35" sheetId="12" r:id="rId6"/>
+    <sheet name="week36-37" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="136">
   <si>
     <t>分组</t>
   </si>
@@ -460,11 +461,51 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>山东网银联盟单一来源材料编制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示DEMO梳理</t>
+    <t>包商银行业务流程梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津农商银行交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联研究院-无纸化安心签介绍材料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化接口熟悉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动营销DEMO调试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光保险无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛京银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化移动营销DEMO云部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化柜面DEMO部署手册编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化保险DEMO优化需求提开发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金行业无纸化方案编制</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,6 +1215,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1187,15 +1243,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1623,32 +1670,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="49"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1657,8 +1704,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1760,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1733,7 +1780,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1798,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +1816,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1789,7 +1836,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1807,7 +1854,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1872,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1845,7 +1892,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="43"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1863,7 +1910,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +1948,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1921,7 +1968,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1939,7 +1986,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1957,7 +2004,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1977,7 +2024,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1995,7 +2042,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +2060,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2033,7 +2080,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2051,7 +2098,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2109,7 +2156,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2129,7 +2176,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2147,7 +2194,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2167,7 +2214,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2185,7 +2232,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2203,7 +2250,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2221,7 +2268,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2239,7 +2286,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2257,7 +2304,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="46"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2275,7 +2322,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2340,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2311,7 +2358,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="46"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2329,7 +2376,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2348,11 +2395,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2363,6 +2405,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2385,13 +2432,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2409,47 +2456,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="53">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="51"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -2534,13 +2581,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2558,47 +2605,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51">
+      <c r="K7" s="53"/>
+      <c r="L7" s="53">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51">
+      <c r="M7" s="53"/>
+      <c r="N7" s="53">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="51"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2683,6 +2730,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2696,11 +2748,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2722,13 +2769,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2746,47 +2793,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="53">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="51"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
@@ -2871,13 +2918,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2895,47 +2942,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51">
+      <c r="K7" s="53"/>
+      <c r="L7" s="53">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51">
+      <c r="M7" s="53"/>
+      <c r="N7" s="53">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="51"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3017,6 +3064,682 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="53">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="55"/>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="53">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="53">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="55"/>
+      <c r="B3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="53">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3045,13 +3768,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3060,19 +3782,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3084,87 +3806,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="51">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51">
+      <c r="B2" s="53">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="51"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3173,55 +3895,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3233,87 +3955,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="51"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3322,39 +4044,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3383,13 +4105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3398,19 +4119,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3422,87 +4143,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="51">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51">
+      <c r="B2" s="53">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="51"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3511,55 +4232,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="39"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3571,87 +4292,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="51"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3659,40 +4380,20 @@
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="39"/>
+      <c r="O9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3701,6 +4402,11 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3709,351 +4415,8 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>34</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="51">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51">
-        <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="51"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="41"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="51">
-        <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="51"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="143">
   <si>
     <t>分组</t>
   </si>
@@ -501,11 +501,41 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无纸化保险DEMO优化需求提开发</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金行业无纸化方案编制</t>
+    <t>盛京银行定制化方案PPT编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛京银行无纸化交流
+河南农信电话交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京质监局交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京银行信用卡中心方案编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南泰山保险交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘财证券公司交流（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国管公积金交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原银行供应链金融部交流
+郑银消费金融交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金无纸化方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4109,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4250,16 +4280,16 @@
         <v>131</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -4380,16 +4410,36 @@
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="B9" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>141</v>
+      </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -4402,11 +4452,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -4415,8 +4460,14 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="week32-33" sheetId="11" r:id="rId5"/>
     <sheet name="week34-35" sheetId="12" r:id="rId6"/>
     <sheet name="week36-37" sheetId="13" r:id="rId7"/>
+    <sheet name="week38-39" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="149">
   <si>
     <t>分组</t>
   </si>
@@ -522,20 +523,43 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>湘财证券公司交流（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>国管公积金交流</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>中原银行供应链金融部交流
-郑银消费金融交流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金无纸化方案</t>
+    <t>恒丰银行交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化新版本接口测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山保险方案编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海易招标无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海易招标无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海易招标无纸化部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行无纸化实施支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-上海</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化新版本部署与接口测试</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,6 +1275,27 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1258,21 +1303,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,32 +1730,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="46"/>
+      <c r="L1" s="53"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1734,8 +1764,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1790,7 +1820,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1810,7 +1840,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1858,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1876,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1866,7 +1896,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +1914,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="49"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1932,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1922,7 +1952,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1940,7 +1970,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="49"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1978,7 +2008,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1998,7 +2028,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2016,7 +2046,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="49"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2034,7 +2064,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2054,7 +2084,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2072,7 +2102,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2090,7 +2120,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2110,7 +2140,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2128,7 +2158,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="49"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2186,7 +2216,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2206,7 +2236,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="49"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2224,7 +2254,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2244,7 +2274,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="51"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2262,7 +2292,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +2310,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="51"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2298,7 +2328,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="51"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2316,7 +2346,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="51"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2334,7 +2364,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="51"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2352,7 +2382,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="51"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2370,7 +2400,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="51"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2388,7 +2418,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="51"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2406,7 +2436,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="51"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2425,6 +2455,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2435,11 +2470,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2462,13 +2492,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2486,47 +2516,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="55">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="53"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -2611,13 +2641,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2635,47 +2665,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="55">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
+      <c r="G7" s="55"/>
+      <c r="H7" s="55">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53">
+      <c r="I7" s="55"/>
+      <c r="J7" s="55">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53">
+      <c r="K7" s="55"/>
+      <c r="L7" s="55">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="53"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="55"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2760,11 +2790,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2778,6 +2803,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2799,13 +2829,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2823,47 +2853,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="55">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="53"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
@@ -2948,13 +2978,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2972,47 +3002,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="55">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
+      <c r="G7" s="55"/>
+      <c r="H7" s="55">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53">
+      <c r="I7" s="55"/>
+      <c r="J7" s="55">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53">
+      <c r="K7" s="55"/>
+      <c r="L7" s="55">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="53"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="55"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3094,6 +3124,682 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="55">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="55"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="55">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="55"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="57"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="55">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="55"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="55">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="55"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="57"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3122,13 +3828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3137,19 +3842,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3161,87 +3866,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="53">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53">
+      <c r="B2" s="55">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="53"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3250,55 +3955,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3310,87 +4015,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="55">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="53"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3399,39 +4104,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3460,13 +4165,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3475,19 +4179,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3499,87 +4203,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="53">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53">
+      <c r="B2" s="55">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="53"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3588,55 +4292,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="39"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3648,87 +4352,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="55">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="53"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3737,39 +4441,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="39"/>
+      <c r="O9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3798,12 +4502,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3812,19 +4516,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3836,87 +4540,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="53">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53">
+      <c r="B2" s="55">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55">
         <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="53"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3925,55 +4629,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="41"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3985,87 +4689,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="55">
         <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="53"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4073,43 +4777,33 @@
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>127</v>
-      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="41"/>
+      <c r="O9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -4118,356 +4812,8 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="53">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="53"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="53">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="53"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -15,13 +15,14 @@
     <sheet name="week34-35" sheetId="12" r:id="rId6"/>
     <sheet name="week36-37" sheetId="13" r:id="rId7"/>
     <sheet name="week38-39" sheetId="14" r:id="rId8"/>
+    <sheet name="week40-41" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="155">
   <si>
     <t>分组</t>
   </si>
@@ -560,6 +561,32 @@
   </si>
   <si>
     <t>无纸化新版本部署与接口测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡线上开卡无纸化方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海花旗银行总部无纸化交流（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行无纸化实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴打车无纸化实施支持</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行情况反馈
+中银三星保险无纸化合同评审
+预植场景证书系统部署</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化实施问题梳理</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,6 +1308,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1294,15 +1336,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,32 +1763,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="52" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="53"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1797,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1820,7 +1853,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="54" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1840,7 +1873,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1858,7 +1891,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1876,7 +1909,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="54" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1896,7 +1929,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1914,7 +1947,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1932,7 +1965,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="54" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1952,7 +1985,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1970,7 +2003,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2008,7 +2041,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="54" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2028,7 +2061,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2046,7 +2079,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2064,7 +2097,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="52" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2084,7 +2117,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2102,7 +2135,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2120,7 +2153,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2140,7 +2173,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2158,7 +2191,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2216,7 +2249,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="54" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2236,7 +2269,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2254,7 +2287,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2274,7 +2307,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2292,7 +2325,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2310,7 +2343,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2328,7 +2361,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2346,7 +2379,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2364,7 +2397,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2382,7 +2415,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2400,7 +2433,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2418,7 +2451,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2436,7 +2469,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2455,11 +2488,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2470,6 +2498,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2492,13 +2525,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2516,47 +2549,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="57">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55">
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="55"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -2641,13 +2674,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2665,47 +2698,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="57">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55">
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="55"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2790,6 +2823,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2803,11 +2841,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,13 +2862,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2853,47 +2886,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="57">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55">
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="55"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
@@ -2978,13 +3011,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3002,47 +3035,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="57">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55">
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="55"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3124,6 +3157,682 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="57">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="57"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="57">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="57">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="57"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="57">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3152,13 +3861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3167,19 +3875,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3191,87 +3899,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="55">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55">
+      <c r="B2" s="57">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="55"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3280,55 +3988,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3340,87 +4048,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="57">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="55"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3429,39 +4137,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3490,13 +4198,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3505,19 +4212,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3529,87 +4236,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="55">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55">
+      <c r="B2" s="57">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="55"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3618,55 +4325,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="39"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3678,87 +4385,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="57">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="55"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3767,39 +4474,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="39"/>
+      <c r="O9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3828,12 +4535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3842,19 +4549,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3866,87 +4573,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="55">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55">
+      <c r="B2" s="57">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="55"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3955,55 +4662,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="41"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4015,87 +4722,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="57">
         <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="55"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4104,376 +4811,43 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>124</v>
+        <v>151</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+        <v>154</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>152</v>
+      </c>
       <c r="N9" s="28"/>
-      <c r="O9" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="55">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="55"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="55">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="55"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="43"/>
+      <c r="O9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4502,12 +4876,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4516,19 +4890,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="29" t="s">
         <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4540,87 +4914,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="55">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55">
+      <c r="B2" s="57">
+        <f>DATE(2017,10,2)</f>
+        <v>43010</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55">
+        <v>43011</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55">
+        <v>43012</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
+        <v>43013</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55">
+        <v>43014</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55">
+        <v>43015</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="55"/>
+        <v>43016</v>
+      </c>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="46" t="s">
+      <c r="C3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4638,7 +5012,7 @@
         <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>145</v>
@@ -4661,23 +5035,23 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4689,87 +5063,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="57">
         <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55">
+        <v>43017</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
+        <v>43018</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55">
+        <v>43019</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55">
+        <v>43020</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55">
+        <v>43021</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55">
+        <v>43022</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="55"/>
+        <v>43023</v>
+      </c>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4783,14 +5157,14 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="45"/>
+      <c r="O9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="week36-37" sheetId="13" r:id="rId7"/>
     <sheet name="week38-39" sheetId="14" r:id="rId8"/>
     <sheet name="week40-41" sheetId="15" r:id="rId9"/>
+    <sheet name="week47-48" sheetId="16" r:id="rId10"/>
+    <sheet name="week49-50" sheetId="17" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="178">
   <si>
     <t>分组</t>
   </si>
@@ -611,6 +613,74 @@
   </si>
   <si>
     <t>包商银行实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦清旺</t>
+  </si>
+  <si>
+    <t>大众汽车消费金融标书PPT编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统本地搭建和接口学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队OA电子签章项目现场测试、部署、使用测试手册编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目交接、新人培训</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众汽车金融投标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦庄与开发评审军队OA电子签章项目需求说明书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众汽车金融投标补充资料编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休一天</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案、项目梳理与交接
+自建CA产品学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众汽车消费金融标书PPT编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签章系统本地搭建和接口学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队OA电子签章项目现场测试、部署、使用测试手册编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目交接、新人培训</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众汽车金融投标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦庄与开发评审军队OA电子签章项目需求说明书</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +692,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +854,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1190,7 +1267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,6 +1415,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1353,15 +1445,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1369,6 +1452,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1787,32 +1876,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="54" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="55"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1821,8 +1910,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1877,7 +1966,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="56" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1897,7 +1986,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="49"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1915,7 +2004,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1933,7 +2022,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="56" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1953,7 +2042,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1971,7 +2060,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="50"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1989,7 +2078,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="56" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2009,7 +2098,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="49"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2027,7 +2116,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2065,7 +2154,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="56" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2085,7 +2174,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="49"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2103,7 +2192,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="50"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2121,7 +2210,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="54" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2141,7 +2230,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="49"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2159,7 +2248,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2177,7 +2266,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2197,7 +2286,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="49"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2215,7 +2304,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="50"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2273,7 +2362,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="56" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2293,7 +2382,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2311,7 +2400,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2331,7 +2420,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2349,7 +2438,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="52"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2367,7 +2456,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2385,7 +2474,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2403,7 +2492,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2421,7 +2510,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2528,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="52"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2457,7 +2546,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2475,7 +2564,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="52"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2582,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="52"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2512,11 +2601,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2527,10 +2611,687 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>48</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="59">
+        <f>DATE(2017,11,27)</f>
+        <v>43066</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
+        <f>SUM(B2+1)</f>
+        <v>43067</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>43068</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>43069</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>43070</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>43071</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>43072</v>
+      </c>
+      <c r="O2" s="59"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>49</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="59">
+        <f>B2+7</f>
+        <v>43073</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>43074</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>43075</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>43076</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>43077</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>43078</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>43079</v>
+      </c>
+      <c r="O7" s="59"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>48</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="59">
+        <f>DATE(2017,11,27)</f>
+        <v>43066</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
+        <f>SUM(B2+1)</f>
+        <v>43067</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>43068</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>43069</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>43070</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>43071</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>43072</v>
+      </c>
+      <c r="O2" s="59"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>49</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="59">
+        <f>B2+7</f>
+        <v>43073</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>43074</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>43075</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>43076</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>43077</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>43078</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>43079</v>
+      </c>
+      <c r="O7" s="59"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2549,13 +3310,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2573,47 +3334,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="59">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="57"/>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -2698,13 +3459,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2722,47 +3483,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="59">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="57"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2847,6 +3608,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2860,11 +3626,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2886,13 +3647,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2910,47 +3671,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="59">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="57"/>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
@@ -3035,13 +3796,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3059,47 +3820,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="59">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="57"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3181,6 +3942,682 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="59">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="59"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="59">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="59"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="59">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="59"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="59">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="59"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3209,13 +4646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3224,19 +4660,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3248,87 +4684,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="B2" s="59">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="57"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3337,55 +4773,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3397,87 +4833,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="59">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="57"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3486,39 +4922,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3547,13 +4983,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3562,19 +4997,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3586,87 +5021,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="B2" s="59">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="57"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3675,55 +5110,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="39"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3735,87 +5170,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="59">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="57"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3824,39 +5259,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="39"/>
+      <c r="O9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3885,12 +5320,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3899,19 +5334,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3923,87 +5358,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="B2" s="59">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
         <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="57"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4012,55 +5447,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="41"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4072,87 +5507,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="59">
         <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="57"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4161,376 +5596,43 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>124</v>
+        <v>151</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+        <v>154</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>152</v>
+      </c>
       <c r="N9" s="28"/>
-      <c r="O9" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="57"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="57">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="57"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="43"/>
+      <c r="O9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4559,12 +5661,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4573,19 +5675,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="29" t="s">
         <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4597,87 +5699,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
+      <c r="B2" s="59">
+        <f>DATE(2017,10,2)</f>
+        <v>43010</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
         <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
+        <v>43011</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+        <v>43012</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+        <v>43013</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
+        <v>43014</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
+        <v>43015</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="57"/>
+        <v>43016</v>
+      </c>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="46" t="s">
+      <c r="C3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4695,7 +5797,7 @@
         <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>145</v>
@@ -4718,23 +5820,23 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4746,87 +5848,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="59">
         <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
+        <v>43017</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+        <v>43018</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+        <v>43019</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
+        <v>43020</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
+        <v>43021</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
+        <v>43022</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="57"/>
+        <v>43023</v>
+      </c>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4835,43 +5937,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>152</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="45"/>
+      <c r="O9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4898,341 +5996,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>40</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="57">
-        <f>DATE(2017,10,2)</f>
-        <v>43010</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57">
-        <f>SUM(B2+1)</f>
-        <v>43011</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>43012</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>43013</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>43014</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>43015</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>43016</v>
-      </c>
-      <c r="O2" s="57"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="47"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>41</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="57">
-        <f>B2+7</f>
-        <v>43017</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>43018</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>43019</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>43020</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43021</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43022</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43023</v>
-      </c>
-      <c r="O7" s="57"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="week40-41" sheetId="15" r:id="rId9"/>
     <sheet name="week47-48" sheetId="16" r:id="rId10"/>
     <sheet name="week49-50" sheetId="17" r:id="rId11"/>
+    <sheet name="week51-52" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="184">
   <si>
     <t>分组</t>
   </si>
@@ -681,6 +682,30 @@
   </si>
   <si>
     <t>亦庄与开发评审军队OA电子签章项目需求说明书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众汽车金融投标补充资料编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海银行交流（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle+weblogic环境无纸化系统搭建</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化产品汇报会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券标书PPT编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队OA电子签章项目实施</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,6 +1446,33 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1430,21 +1482,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,12 +1489,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1876,32 +1907,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="51" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="52"/>
+      <c r="L1" s="61"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1910,8 +1941,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1997,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1986,7 +2017,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2004,7 +2035,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2022,7 +2053,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2042,7 +2073,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2060,7 +2091,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2109,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2098,7 +2129,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2147,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2154,7 +2185,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="57" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2174,7 +2205,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2192,7 +2223,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2210,7 +2241,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2230,7 +2261,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2248,7 +2279,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2266,7 +2297,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2286,7 +2317,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2304,7 +2335,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2362,7 +2393,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2382,7 +2413,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2400,7 +2431,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="58" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2420,7 +2451,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2469,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2456,7 +2487,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2474,7 +2505,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2492,7 +2523,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2510,7 +2541,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2528,7 +2559,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2546,7 +2577,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2564,7 +2595,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2613,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2601,6 +2632,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2611,11 +2647,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2627,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
@@ -2637,13 +2668,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2661,47 +2692,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="63">
         <f>DATE(2017,11,27)</f>
         <v>43066</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <f>SUM(B2+1)</f>
         <v>43067</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>43068</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>43069</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>43070</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>43071</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>43072</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
@@ -2745,7 +2776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+    <row r="4" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>161</v>
       </c>
@@ -2786,13 +2817,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2810,47 +2841,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="63">
         <f>B2+7</f>
         <v>43073</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>43074</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>43075</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>43076</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>43077</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>43078</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>43079</v>
       </c>
-      <c r="O7" s="59"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="50" t="s">
         <v>2</v>
       </c>
@@ -2894,38 +2925,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="54" t="s">
         <v>171</v>
       </c>
       <c r="L9" s="28"/>
@@ -2935,16 +2966,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2953,6 +2974,16 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2973,13 +3004,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2997,47 +3028,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="63">
         <f>DATE(2017,11,27)</f>
         <v>43066</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <f>SUM(B2+1)</f>
         <v>43067</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>43068</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>43069</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>43070</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>43071</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>43072</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
@@ -3081,7 +3112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+    <row r="4" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>161</v>
       </c>
@@ -3122,13 +3153,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3146,47 +3177,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="63">
         <f>B2+7</f>
         <v>43073</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>43074</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>43075</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>43076</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>43077</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>43078</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>43079</v>
       </c>
-      <c r="O7" s="59"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="50" t="s">
         <v>2</v>
       </c>
@@ -3230,44 +3261,361 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="62" customFormat="1" ht="60" customHeight="1">
+    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="63" t="s">
+      <c r="D9" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="63" t="s">
+      <c r="J9" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" s="54" t="s">
         <v>171</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>50</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="63">
+        <f>DATE(2017,12,11)</f>
+        <v>43080</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
+        <f>SUM(B2+1)</f>
+        <v>43081</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
+        <f>SUM(D2+1)</f>
+        <v>43082</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
+        <f>SUM(F2+1)</f>
+        <v>43083</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
+        <f>SUM(H2+1)</f>
+        <v>43084</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
+        <f>SUM(J2+1)</f>
+        <v>43085</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
+        <f>SUM(L2+1)</f>
+        <v>43086</v>
+      </c>
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="51"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>51</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="63">
+        <f>B2+7</f>
+        <v>43087</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
+        <f>D2+7</f>
+        <v>43088</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
+        <f>F2+7</f>
+        <v>43089</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
+        <f>H2+7</f>
+        <v>43090</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
+        <f>J2+7</f>
+        <v>43091</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
+        <f>L2+7</f>
+        <v>43092</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
+        <f>N2+7</f>
+        <v>43093</v>
+      </c>
+      <c r="O7" s="63"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="53" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3310,13 +3658,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3334,47 +3682,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="63">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -3459,13 +3807,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3483,47 +3831,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="63">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="59"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -3608,11 +3956,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -3626,6 +3969,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3647,13 +3995,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -3671,47 +4019,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="63">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
@@ -3796,13 +4144,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -3820,47 +4168,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="63">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="59"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -3942,6 +4290,682 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="63">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="63">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="63"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>32</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="63">
+        <f>DATE(2017,8,7)</f>
+        <v>42954</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
+        <f>SUM(B2+1)</f>
+        <v>42955</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42956</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42957</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42958</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42959</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42960</v>
+      </c>
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="63">
+        <f>B2+7</f>
+        <v>42961</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42962</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42963</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42964</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42965</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42966</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42967</v>
+      </c>
+      <c r="O7" s="63"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3970,13 +4994,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3985,19 +5008,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4009,87 +5032,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59">
-        <f>DATE(2017,7,24)</f>
-        <v>42940</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="B2" s="63">
+        <f>DATE(2017,8,21)</f>
+        <v>42968</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <f>SUM(B2+1)</f>
-        <v>42941</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
+        <v>42969</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42942</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
+        <v>42970</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42943</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
+        <v>42971</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42944</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
+        <v>42972</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42945</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
+        <v>42973</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42946</v>
-      </c>
-      <c r="O2" s="59"/>
+        <v>42974</v>
+      </c>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="C3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4098,55 +5121,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4158,87 +5181,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="63">
         <f>B2+7</f>
-        <v>42947</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+        <v>42975</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42948</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
+        <v>42976</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42949</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
+        <v>42977</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42950</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
+        <v>42978</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42951</v>
-      </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
+        <v>42979</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42952</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+        <v>42980</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42953</v>
-      </c>
-      <c r="O7" s="59"/>
+        <v>42981</v>
+      </c>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="38" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4247,39 +5270,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4308,13 +5331,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4323,19 +5345,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4347,87 +5369,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59">
-        <f>DATE(2017,8,7)</f>
-        <v>42954</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="B2" s="63">
+        <f>DATE(2017,9,4)</f>
+        <v>42982</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <f>SUM(B2+1)</f>
-        <v>42955</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
+        <v>42983</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42956</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
+        <v>42984</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42957</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
+        <v>42985</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42958</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
+        <v>42986</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42959</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
+        <v>42987</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42960</v>
-      </c>
-      <c r="O2" s="59"/>
+        <v>42988</v>
+      </c>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4436,55 +5458,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="39"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4496,87 +5518,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="63">
         <f>B2+7</f>
-        <v>42961</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42962</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
+        <v>42990</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42963</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
+        <v>42991</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42964</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
+        <v>42992</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42965</v>
-      </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
+        <v>42993</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42966</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+        <v>42994</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42967</v>
-      </c>
-      <c r="O7" s="59"/>
+        <v>42995</v>
+      </c>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="40" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4585,39 +5607,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="39"/>
+      <c r="O9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4646,12 +5668,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4660,19 +5682,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="29" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -4684,87 +5706,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59">
-        <f>DATE(2017,8,21)</f>
-        <v>42968</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="B2" s="63">
+        <f>DATE(2017,9,18)</f>
+        <v>42996</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <f>SUM(B2+1)</f>
-        <v>42969</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
+        <v>42997</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42970</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
+        <v>42998</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42971</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
+        <v>42999</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42972</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42973</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
+        <v>43001</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42974</v>
-      </c>
-      <c r="O2" s="59"/>
+        <v>43002</v>
+      </c>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4773,55 +5795,55 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="41"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4833,87 +5855,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="63">
         <f>B2+7</f>
-        <v>42975</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+        <v>43003</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42976</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
+        <v>43004</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42977</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
+        <v>43005</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42978</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
+        <v>43006</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42979</v>
-      </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
+        <v>43007</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42980</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+        <v>43008</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42981</v>
-      </c>
-      <c r="O7" s="59"/>
+        <v>43009</v>
+      </c>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="42" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4922,376 +5944,43 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>124</v>
+        <v>151</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+        <v>154</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>152</v>
+      </c>
       <c r="N9" s="28"/>
-      <c r="O9" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>36</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="59">
-        <f>DATE(2017,9,4)</f>
-        <v>42982</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
-        <f>SUM(B2+1)</f>
-        <v>42983</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42984</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42985</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42986</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42987</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42988</v>
-      </c>
-      <c r="O2" s="59"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="59">
-        <f>B2+7</f>
-        <v>42989</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42990</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42991</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42992</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42993</v>
-      </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42994</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42995</v>
-      </c>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="43"/>
+      <c r="O9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5320,12 +6009,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5334,19 +6023,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="29" t="s">
         <v>129</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -5358,87 +6047,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="59">
-        <f>DATE(2017,9,18)</f>
-        <v>42996</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="B2" s="63">
+        <f>DATE(2017,10,2)</f>
+        <v>43010</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <f>SUM(B2+1)</f>
-        <v>42997</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
+        <v>43011</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42998</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
+        <v>43012</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42999</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
+        <v>43013</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>43000</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
+        <v>43014</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>43001</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
+        <v>43015</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>43002</v>
-      </c>
-      <c r="O2" s="59"/>
+        <v>43016</v>
+      </c>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="46" t="s">
+      <c r="C3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5456,7 +6145,7 @@
         <v>143</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>145</v>
@@ -5479,23 +6168,23 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5507,87 +6196,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="63">
         <f>B2+7</f>
-        <v>43003</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+        <v>43017</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>43004</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
+        <v>43018</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>43005</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
+        <v>43019</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>43006</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
+        <v>43020</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43007</v>
-      </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
+        <v>43021</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43008</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
+        <v>43022</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43009</v>
-      </c>
-      <c r="O7" s="59"/>
+        <v>43023</v>
+      </c>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5596,43 +6285,39 @@
         <v>61</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>152</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="45"/>
+      <c r="O9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5659,341 +6344,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>40</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="59">
-        <f>DATE(2017,10,2)</f>
-        <v>43010</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
-        <f>SUM(B2+1)</f>
-        <v>43011</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>43012</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>43013</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>43014</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>43015</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>43016</v>
-      </c>
-      <c r="O2" s="59"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="47"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>41</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="59">
-        <f>B2+7</f>
-        <v>43017</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>43018</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>43019</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>43020</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43021</v>
-      </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43022</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43023</v>
-      </c>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>